--- a/biology/Zoologie/Allandrus_fuscipennis/Allandrus_fuscipennis.xlsx
+++ b/biology/Zoologie/Allandrus_fuscipennis/Allandrus_fuscipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allandrus fuscipennis est une espèce d'insectes de l'ordre des coléoptères, de la famille des Anthribidae, du genre Allandrus.
 Synonymie
-Selon BioLib                    (18 août 2014)[1]
+Selon BioLib                    (18 août 2014)
 Tropideres fuscipennis Guillebeau, 1891
 Tropideres rufipennis Rey, 1893
 Tropideres undulatus Fahraeus, 1839 nec Panzer, 1795
@@ -518,9 +530,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Répartition
-Allandrus fuscipennis est présent en France (dont Nord-Pas-de-Calais).
-Habitat</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allandrus fuscipennis est présent en France (dont Nord-Pas-de-Calais).
+</t>
         </is>
       </c>
     </row>
@@ -549,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +621,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Allandrus fuscipennis est décrite par Guillebeau en 1891 sous le protonyme Tropideres fuscipennis.
 </t>
